--- a/data/publications/orcid/export_to_manual/Krakowska_Akademia_Andrzeja_Frycza_Modrzewskiego_w_Krakowie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Krakowska_Akademia_Andrzeja_Frycza_Modrzewskiego_w_Krakowie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,590 +436,640 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Maria Borczykowska-Rzepka</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8915-0042</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>O zjawisku samotności wśród młodzieży z chorobami skórno-nerwowymi – rozważania teoretyczno-empiryczne</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Państwowej Wyższej Szkoły Zawodowej im. Witelona w Legnicy</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Maria_Borczykowska-Rzepka_1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Maria Borczykowska-Rzepka</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8915-0042</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adolescents perception of parenting styles as a correlate of their styles of coping with stress</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Państwowej Wyższej Szkoły Zawodowej im. Witelona w Legnicy</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Maria_Borczykowska-Rzepka_3</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Maria Borczykowska-Rzepka</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8915-0042</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Młodzież gimnazjalna w obliczu niepełnosprawności członka rodziny-doniesienie z badań nad samotnością rodzeństwa dzieci z mózgowym porażeniem dziecięcym.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Państwowej Wyższej Szkoły Zawodowej im. Witelona w Legnicy</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maria_Borczykowska-Rzepka_4</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Maria Borczykowska-Rzepka</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8915-0042</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>O potrzebie poszukiwania korelatów satysfakcji z życia matek z dziećmi z dystrofią mięśniową Duchenne'a - rozważania teoretyczno-empiryczne.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe PWSZ im.Witelona w Legnicy</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maria_Borczykowska-Rzepka_5</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Maria Borczykowska-Rzepka</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8915-0042</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Paradoks problemu samotności na przykładzie chorych ze sclerosis multiplex (SM)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Maria_Borczykowska-Rzepka_6</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Maria Borczykowska-Rzepka</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8915-0042</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Samotność czynnikiem ryzyka zachowań agresywnych wśród wychowanków placówek opiekuńczo-wychowawczych</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Państwowej Wyższej Szkoły Zawodowej im. Witelona w Legnicy</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Maria_Borczykowska-Rzepka_8</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Anna Czerniak</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1020-7307</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Serving two masters – What kind of resistance to influence allows maintaining a positive image?</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2018-12-28</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Social Psychological Bulletin</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Anna_Czerniak_1</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Artur Daren</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-1851-9911</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Forms of aggression in women experiencing violence in their intimate relationships</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Psychoterapia</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Artur_Daren_11</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>23</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Agnieszka Fusińska-Korpik</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3520-1315</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Jak rozwiązać konflikt? Narzędzia skutecznej komunikacji w sytuacjach trudnych</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lekarz Rodzinny</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Agnieszka_Fusińska-Korpik_3</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>26</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Joanna Konarska</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2034-8875</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Key Components of Inclusive Education,  eds. Viktor Lechta, Nad‘a Bizová</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Państwo i Społeczeństwo</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Joanna_Konarska_1</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>27</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Joanna Konarska</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2034-8875</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Rzeczywistość prawna i społeczna w kontekście realizacji paradygmatu normalizacji życia osób z niepełnosprawnością</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Państwo i Społeczeństwo</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Joanna_Konarska_2</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>28</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Joanna Konarska</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2034-8875</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Rzeczywistość prawna i społeczna w kontekście realizacji paradygmatu normalizacji życia osób z niepełnosprawnością</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Państwo i Społeczeństwo</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Joanna_Konarska_3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>29</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Joanna Konarska</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2034-8875</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Społeczeństwo i niepełnosprawność. Wprowadzenie</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Państwo i Społeczeństwo</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Joanna_Konarska_4</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>30</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Joanna Konarska</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2034-8875</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Potrzeba bliskości i intymności a świadomość niepełnosprawności.</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>LUBELSKI ROCZNIK PEDAGOGICZNY</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Joanna_Konarska_5</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Ewa Wilczek-Rużyczka</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2261-8939</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Influence of Empathy, Beliefs, Attitudes, and Demographic Variables on Willingness to Donate Organs</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Transplantation Proceedings</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Ewa_Wilczek-Rużyczka_1</t>
         </is>
